--- a/Annotations/Old/Frankenstein.xlsx
+++ b/Annotations/Old/Frankenstein.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9252" windowHeight="10620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9252" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="frankensteinV2" sheetId="1" r:id="rId1"/>
@@ -1824,14 +1824,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H302" sqref="H302"/>
+      <selection pane="bottomLeft" activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.21875" style="3" customWidth="1"/>
     <col min="5" max="5" width="29.21875" style="2" customWidth="1"/>
@@ -1893,7 +1894,7 @@
     <row r="2" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.25885062885872079</v>
+        <v>0.39429263040772433</v>
       </c>
       <c r="B2" s="2">
         <v>169</v>
@@ -1920,7 +1921,7 @@
     <row r="3" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23774085370682763</v>
+        <v>0.9428308122412915</v>
       </c>
       <c r="B3" s="2">
         <v>163</v>
@@ -1947,7 +1948,7 @@
     <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65807735100527409</v>
+        <v>0.84275784235458828</v>
       </c>
       <c r="B4" s="2">
         <v>196</v>
@@ -1974,7 +1975,7 @@
     <row r="5" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47931185678103483</v>
+        <v>0.20104143185910039</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
@@ -1995,7 +1996,7 @@
     <row r="6" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74933594722302532</v>
+        <v>0.22434933781202526</v>
       </c>
       <c r="B6" s="2">
         <v>299</v>
@@ -2022,7 +2023,7 @@
     <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30483022307600538</v>
+        <v>0.77301310521101563</v>
       </c>
       <c r="B7" s="2">
         <v>44</v>
@@ -2049,7 +2050,7 @@
     <row r="8" spans="1:16" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36070193090626645</v>
+        <v>0.56632087462380698</v>
       </c>
       <c r="B8" s="2">
         <v>73</v>
@@ -2076,7 +2077,7 @@
     <row r="9" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13091116290326343</v>
+        <v>0.50171987763755443</v>
       </c>
       <c r="B9" s="2">
         <v>183</v>
@@ -2103,7 +2104,7 @@
     <row r="10" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76342651586763166</v>
+        <v>0.4522695245686793</v>
       </c>
       <c r="B10" s="2">
         <v>238</v>
@@ -2127,7 +2128,7 @@
     <row r="11" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54530422195385608</v>
+        <v>0.8793926924469998</v>
       </c>
       <c r="B11" s="2">
         <v>217</v>
@@ -2154,7 +2155,7 @@
     <row r="12" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26543852087262487</v>
+        <v>0.15642430712875044</v>
       </c>
       <c r="B12" s="2">
         <v>263</v>
@@ -2178,7 +2179,7 @@
     <row r="13" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94873449202166416</v>
+        <v>0.30669463442583766</v>
       </c>
       <c r="B13" s="2">
         <v>219</v>
@@ -2202,7 +2203,7 @@
     <row r="14" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62670460989602927</v>
+        <v>0.44016520623914401</v>
       </c>
       <c r="B14" s="2">
         <v>190</v>
@@ -2223,7 +2224,7 @@
     <row r="15" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48947905094235833</v>
+        <v>0.32170048332742163</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
@@ -2250,7 +2251,7 @@
     <row r="16" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94240144536416115</v>
+        <v>0.44688022322406662</v>
       </c>
       <c r="B16" s="2">
         <v>11</v>
@@ -2274,7 +2275,7 @@
     <row r="17" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56300718933794358</v>
+        <v>0.42929402483374735</v>
       </c>
       <c r="B17" s="2">
         <v>18</v>
@@ -2301,7 +2302,7 @@
     <row r="18" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29762194638383421</v>
+        <v>0.25350499853655395</v>
       </c>
       <c r="B18" s="2">
         <v>8</v>
@@ -2328,7 +2329,7 @@
     <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37494614853008879</v>
+        <v>0.17807976908518663</v>
       </c>
       <c r="B19" s="2">
         <v>221</v>
@@ -2352,7 +2353,7 @@
     <row r="20" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78801699715843365</v>
+        <v>9.1516072603195053E-2</v>
       </c>
       <c r="B20" s="2">
         <v>47</v>
@@ -2379,7 +2380,7 @@
     <row r="21" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20809258302943057</v>
+        <v>0.15274568394369248</v>
       </c>
       <c r="B21" s="2">
         <v>127</v>
@@ -2403,7 +2404,7 @@
     <row r="22" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87457258867638432</v>
+        <v>0.38182010654575516</v>
       </c>
       <c r="B22" s="2">
         <v>252</v>
@@ -2430,7 +2431,7 @@
     <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48630296792394234</v>
+        <v>1.239070065576231E-2</v>
       </c>
       <c r="B23" s="2">
         <v>149</v>
@@ -2457,7 +2458,7 @@
     <row r="24" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53676712344556421</v>
+        <v>0.21582727504587995</v>
       </c>
       <c r="B24" s="2">
         <v>65</v>
@@ -2484,7 +2485,7 @@
     <row r="25" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64773547398729558</v>
+        <v>0.53536777065592167</v>
       </c>
       <c r="B25" s="2">
         <v>7</v>
@@ -2508,7 +2509,7 @@
     <row r="26" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85512320017497978</v>
+        <v>0.42785356732249313</v>
       </c>
       <c r="B26" s="2">
         <v>222</v>
@@ -2538,7 +2539,7 @@
     <row r="27" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22556061256514093</v>
+        <v>6.9472657963941531E-3</v>
       </c>
       <c r="B27" s="2">
         <v>114</v>
@@ -2559,7 +2560,7 @@
     <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84824814564689788</v>
+        <v>0.61312005667710734</v>
       </c>
       <c r="B28" s="2">
         <v>224</v>
@@ -2583,7 +2584,7 @@
     <row r="29" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94308932499831122</v>
+        <v>0.31016122039501082</v>
       </c>
       <c r="B29" s="2">
         <v>134</v>
@@ -2613,7 +2614,7 @@
     <row r="30" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2549569598338981E-2</v>
+        <v>0.13654324731823619</v>
       </c>
       <c r="B30" s="2">
         <v>21</v>
@@ -2637,7 +2638,7 @@
     <row r="31" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9063277156650964</v>
+        <v>0.80288883587438942</v>
       </c>
       <c r="B31" s="2">
         <v>128</v>
@@ -2658,7 +2659,7 @@
     <row r="32" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87216656396097092</v>
+        <v>0.65382811242900218</v>
       </c>
       <c r="B32" s="2">
         <v>144</v>
@@ -2682,7 +2683,7 @@
     <row r="33" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91429948440958175</v>
+        <v>0.88395174191815995</v>
       </c>
       <c r="B33" s="2">
         <v>120</v>
@@ -2706,7 +2707,7 @@
     <row r="34" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56064831307982843</v>
+        <v>9.5309049069650653E-2</v>
       </c>
       <c r="B34" s="2">
         <v>16</v>
@@ -2730,7 +2731,7 @@
     <row r="35" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75652892029392416</v>
+        <v>0.43483873868834955</v>
       </c>
       <c r="B35" s="2">
         <v>187</v>
@@ -2757,7 +2758,7 @@
     <row r="36" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35339011029533507</v>
+        <v>8.3047156622062523E-2</v>
       </c>
       <c r="B36" s="2">
         <v>143</v>
@@ -2781,7 +2782,7 @@
     <row r="37" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60033876276512155</v>
+        <v>0.16928551952552573</v>
       </c>
       <c r="B37" s="2">
         <v>107</v>
@@ -2805,7 +2806,7 @@
     <row r="38" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0621878807898599E-2</v>
+        <v>7.9721405747656959E-2</v>
       </c>
       <c r="B38" s="2">
         <v>141</v>
@@ -2829,7 +2830,7 @@
     <row r="39" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13690977060415421</v>
+        <v>0.82535092856034986</v>
       </c>
       <c r="B39" s="2">
         <v>85</v>
@@ -2856,7 +2857,7 @@
     <row r="40" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9210741953154794</v>
+        <v>0.49605251489155766</v>
       </c>
       <c r="B40" s="2">
         <v>158</v>
@@ -2883,7 +2884,7 @@
     <row r="41" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59846183687289056</v>
+        <v>0.31485456584206184</v>
       </c>
       <c r="B41" s="2">
         <v>84</v>
@@ -2910,7 +2911,7 @@
     <row r="42" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19788645199823474</v>
+        <v>0.47584748527093079</v>
       </c>
       <c r="B42" s="2">
         <v>4</v>
@@ -2934,7 +2935,7 @@
     <row r="43" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53431065295659774</v>
+        <v>0.41509600500455879</v>
       </c>
       <c r="B43" s="2">
         <v>80</v>
@@ -2958,7 +2959,7 @@
     <row r="44" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76429291118784892</v>
+        <v>0.42809634719891509</v>
       </c>
       <c r="B44" s="2">
         <v>176</v>
@@ -2982,7 +2983,7 @@
     <row r="45" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55246823401270495</v>
+        <v>0.83608793156800976</v>
       </c>
       <c r="B45" s="2">
         <v>39</v>
@@ -3006,7 +3007,7 @@
     <row r="46" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14551502799862526</v>
+        <v>0.13691177156651912</v>
       </c>
       <c r="B46" s="2">
         <v>277</v>
@@ -3030,7 +3031,7 @@
     <row r="47" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92299098415597991</v>
+        <v>0.93783810221814123</v>
       </c>
       <c r="B47" s="2">
         <v>19</v>
@@ -3054,7 +3055,7 @@
     <row r="48" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8782399166969872</v>
+        <v>0.18215222341942738</v>
       </c>
       <c r="B48" s="2">
         <v>254</v>
@@ -3081,7 +3082,7 @@
     <row r="49" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1989951762388187E-2</v>
+        <v>9.1182111063632609E-2</v>
       </c>
       <c r="B49" s="2">
         <v>38</v>
@@ -3105,7 +3106,7 @@
     <row r="50" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34339698851036493</v>
+        <v>0.42132493773997559</v>
       </c>
       <c r="B50" s="2">
         <v>226</v>
@@ -3129,7 +3130,7 @@
     <row r="51" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49345342155175664</v>
+        <v>0.1078786536485199</v>
       </c>
       <c r="B51" s="2">
         <v>106</v>
@@ -3150,7 +3151,7 @@
     <row r="52" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45773346295906092</v>
+        <v>0.46430222689790335</v>
       </c>
       <c r="B52" s="2">
         <v>87</v>
@@ -3174,7 +3175,7 @@
     <row r="53" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62821824245344016</v>
+        <v>0.49350570263829385</v>
       </c>
       <c r="B53" s="2">
         <v>213</v>
@@ -3201,7 +3202,7 @@
     <row r="54" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98584249055239359</v>
+        <v>1.4516881689373928E-2</v>
       </c>
       <c r="B54" s="2">
         <v>234</v>
@@ -3225,7 +3226,7 @@
     <row r="55" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45923107693561083</v>
+        <v>0.68683298974402174</v>
       </c>
       <c r="B55" s="2">
         <v>279</v>
@@ -3249,7 +3250,7 @@
     <row r="56" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82541497110121387</v>
+        <v>0.20012424165850651</v>
       </c>
       <c r="B56" s="2">
         <v>273</v>
@@ -3273,7 +3274,7 @@
     <row r="57" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92147027349100019</v>
+        <v>0.50855326614033036</v>
       </c>
       <c r="B57" s="2">
         <v>93</v>
@@ -3300,7 +3301,7 @@
     <row r="58" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64201418984073022</v>
+        <v>5.7381106496833589E-2</v>
       </c>
       <c r="B58" s="2">
         <v>49</v>
@@ -3324,7 +3325,7 @@
     <row r="59" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48432107906602295</v>
+        <v>2.4594545817730795E-2</v>
       </c>
       <c r="B59" s="2">
         <v>62</v>
@@ -3345,7 +3346,7 @@
     <row r="60" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2794679579627618</v>
+        <v>0.76216249068333186</v>
       </c>
       <c r="B60" s="2">
         <v>131</v>
@@ -3372,7 +3373,7 @@
     <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50154662854926457</v>
+        <v>0.64244483563589594</v>
       </c>
       <c r="B61" s="2">
         <v>104</v>
@@ -3396,7 +3397,7 @@
     <row r="62" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80501256534654775</v>
+        <v>1.8595690855155445E-3</v>
       </c>
       <c r="B62" s="2">
         <v>115</v>
@@ -3417,7 +3418,7 @@
     <row r="63" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.704423628632215E-2</v>
+        <v>0.66262998631857961</v>
       </c>
       <c r="B63" s="2">
         <v>156</v>
@@ -3444,7 +3445,7 @@
     <row r="64" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44868082073329352</v>
+        <v>0.2445941732793111</v>
       </c>
       <c r="B64" s="2">
         <v>146</v>
@@ -3471,7 +3472,7 @@
     <row r="65" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96914023366931734</v>
+        <v>0.55469209109115614</v>
       </c>
       <c r="B65" s="2">
         <v>247</v>
@@ -3498,7 +3499,7 @@
     <row r="66" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.45955331284751233</v>
+        <v>0.44899173380330859</v>
       </c>
       <c r="B66" s="2">
         <v>45</v>
@@ -3525,7 +3526,7 @@
     <row r="67" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58258492285373997</v>
+        <v>0.6226589048137201</v>
       </c>
       <c r="B67" s="2">
         <v>53</v>
@@ -3552,7 +3553,7 @@
     <row r="68" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80005336128750082</v>
+        <v>0.48411020428574314</v>
       </c>
       <c r="B68" s="2">
         <v>36</v>
@@ -3573,7 +3574,7 @@
     <row r="69" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32818443479570736</v>
+        <v>0.50890630954780991</v>
       </c>
       <c r="B69" s="2">
         <v>298</v>
@@ -3594,7 +3595,7 @@
     <row r="70" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41753303208796844</v>
+        <v>0.65990606598355983</v>
       </c>
       <c r="B70" s="2">
         <v>253</v>
@@ -3618,7 +3619,7 @@
     <row r="71" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2614980667327983</v>
+        <v>0.95216655067552514</v>
       </c>
       <c r="B71" s="2">
         <v>74</v>
@@ -3645,7 +3646,7 @@
     <row r="72" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30082278096998949</v>
+        <v>5.9912589436506014E-2</v>
       </c>
       <c r="B72" s="2">
         <v>257</v>
@@ -3666,7 +3667,7 @@
     <row r="73" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83460598708598088</v>
+        <v>0.51104858682381404</v>
       </c>
       <c r="B73" s="2">
         <v>287</v>
@@ -3693,7 +3694,7 @@
     <row r="74" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90806092552987572</v>
+        <v>0.90687810446728223</v>
       </c>
       <c r="B74" s="2">
         <v>42</v>
@@ -3717,7 +3718,7 @@
     <row r="75" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4048596955231045E-2</v>
+        <v>0.7504899822269866</v>
       </c>
       <c r="B75" s="2">
         <v>192</v>
@@ -3744,7 +3745,7 @@
     <row r="76" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25291488926045014</v>
+        <v>0.78440297452641805</v>
       </c>
       <c r="B76" s="2">
         <v>225</v>
@@ -3768,7 +3769,7 @@
     <row r="77" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52583508671777979</v>
+        <v>0.31787046965306487</v>
       </c>
       <c r="B77" s="2">
         <v>82</v>
@@ -3795,7 +3796,7 @@
     <row r="78" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78057688569962325</v>
+        <v>0.31514994469086255</v>
       </c>
       <c r="B78" s="2">
         <v>79</v>
@@ -3819,7 +3820,7 @@
     <row r="79" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2470517852897665E-2</v>
+        <v>0.68350468972152079</v>
       </c>
       <c r="B79" s="2">
         <v>162</v>
@@ -3846,7 +3847,7 @@
     <row r="80" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77353020556282837</v>
+        <v>0.53045934080345802</v>
       </c>
       <c r="B80" s="2">
         <v>147</v>
@@ -3873,7 +3874,7 @@
     <row r="81" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47650365884198465</v>
+        <v>0.46860581212487051</v>
       </c>
       <c r="B81" s="2">
         <v>133</v>
@@ -3900,7 +3901,7 @@
     <row r="82" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6468905545366792E-2</v>
+        <v>0.33004755039493372</v>
       </c>
       <c r="B82" s="2">
         <v>27</v>
@@ -3924,7 +3925,7 @@
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18565765439921578</v>
+        <v>0.13640159767053461</v>
       </c>
       <c r="B83" s="2">
         <v>110</v>
@@ -3948,7 +3949,7 @@
     <row r="84" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75377387749299651</v>
+        <v>0.43488489187006574</v>
       </c>
       <c r="B84" s="2">
         <v>70</v>
@@ -3972,7 +3973,7 @@
     <row r="85" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5607318461992046E-2</v>
+        <v>2.8562652675960254E-2</v>
       </c>
       <c r="B85" s="2">
         <v>167</v>
@@ -3999,7 +4000,7 @@
     <row r="86" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2407291277590522</v>
+        <v>0.5187896432983844</v>
       </c>
       <c r="B86" s="2">
         <v>137</v>
@@ -4020,7 +4021,7 @@
     <row r="87" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55804574422875997</v>
+        <v>0.69303800013212347</v>
       </c>
       <c r="B87" s="2">
         <v>208</v>
@@ -4047,7 +4048,7 @@
     <row r="88" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63352421191227093</v>
+        <v>0.18249300039705463</v>
       </c>
       <c r="B88" s="2">
         <v>179</v>
@@ -4074,7 +4075,7 @@
     <row r="89" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58792557815618807</v>
+        <v>0.83998440730745971</v>
       </c>
       <c r="B89" s="2">
         <v>2</v>
@@ -4098,7 +4099,7 @@
     <row r="90" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41867087258166558</v>
+        <v>0.94306773610338412</v>
       </c>
       <c r="B90" s="2">
         <v>290</v>
@@ -4119,7 +4120,7 @@
     <row r="91" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65410720082060414</v>
+        <v>0.81129618930283531</v>
       </c>
       <c r="B91" s="2">
         <v>243</v>
@@ -4143,7 +4144,7 @@
     <row r="92" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51333163348648225</v>
+        <v>0.77309625442486807</v>
       </c>
       <c r="B92" s="2">
         <v>66</v>
@@ -4167,7 +4168,7 @@
     <row r="93" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27432024006271716</v>
+        <v>0.22086064719700871</v>
       </c>
       <c r="B93" s="2">
         <v>201</v>
@@ -4194,7 +4195,7 @@
     <row r="94" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37520909710336148</v>
+        <v>0.54291373212508143</v>
       </c>
       <c r="B94" s="2">
         <v>43</v>
@@ -4221,7 +4222,7 @@
     <row r="95" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89096729092079596</v>
+        <v>0.54294042833995526</v>
       </c>
       <c r="B95" s="2">
         <v>249</v>
@@ -4242,7 +4243,7 @@
     <row r="96" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77378609262422571</v>
+        <v>0.29012453052139797</v>
       </c>
       <c r="B96" s="2">
         <v>72</v>
@@ -4269,7 +4270,7 @@
     <row r="97" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10897760330044048</v>
+        <v>7.5438561353729949E-2</v>
       </c>
       <c r="B97" s="2">
         <v>41</v>
@@ -4293,7 +4294,7 @@
     <row r="98" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6350569319724042</v>
+        <v>0.69468454892319598</v>
       </c>
       <c r="B98" s="2">
         <v>34</v>
@@ -4317,7 +4318,7 @@
     <row r="99" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47979895815145912</v>
+        <v>0.20941218839587894</v>
       </c>
       <c r="B99" s="2">
         <v>100</v>
@@ -4338,7 +4339,7 @@
     <row r="100" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67762082807093993</v>
+        <v>1.773506168530159E-2</v>
       </c>
       <c r="B100" s="2">
         <v>232</v>
@@ -4362,7 +4363,7 @@
     <row r="101" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85156325781165287</v>
+        <v>0.72437816542711175</v>
       </c>
       <c r="B101" s="2">
         <v>198</v>
@@ -4386,7 +4387,7 @@
     <row r="102" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94615219742303347</v>
+        <v>0.75191501140048167</v>
       </c>
       <c r="B102" s="2">
         <v>160</v>
@@ -4410,7 +4411,7 @@
     <row r="103" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88731794514783013</v>
+        <v>0.58922424222129355</v>
       </c>
       <c r="B103" s="2">
         <v>266</v>
@@ -4434,7 +4435,7 @@
     <row r="104" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98639613884396282</v>
+        <v>0.30246721766862017</v>
       </c>
       <c r="B104" s="2">
         <v>97</v>
@@ -4458,7 +4459,7 @@
     <row r="105" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15675186033032706</v>
+        <v>0.59875751110794684</v>
       </c>
       <c r="B105" s="2">
         <v>292</v>
@@ -4485,7 +4486,7 @@
     <row r="106" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87091970511747485</v>
+        <v>0.6172619873821974</v>
       </c>
       <c r="B106" s="2">
         <v>119</v>
@@ -4506,7 +4507,7 @@
     <row r="107" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3852727149076165</v>
+        <v>0.87851600015091991</v>
       </c>
       <c r="B107" s="2">
         <v>81</v>
@@ -4530,7 +4531,7 @@
     <row r="108" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76417280504844853</v>
+        <v>0.46517688731079831</v>
       </c>
       <c r="B108" s="2">
         <v>116</v>
@@ -4551,7 +4552,7 @@
     <row r="109" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23038088890424491</v>
+        <v>0.5373717234509795</v>
       </c>
       <c r="B109" s="2">
         <v>15</v>
@@ -4575,7 +4576,7 @@
     <row r="110" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44543921595083968</v>
+        <v>0.73665208124288906</v>
       </c>
       <c r="B110" s="2">
         <v>180</v>
@@ -4599,7 +4600,7 @@
     <row r="111" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11971216634775694</v>
+        <v>7.8304009839506583E-2</v>
       </c>
       <c r="B111" s="2">
         <v>275</v>
@@ -4623,7 +4624,7 @@
     <row r="112" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4708584352045628E-2</v>
+        <v>5.0510585908508543E-2</v>
       </c>
       <c r="B112" s="2">
         <v>78</v>
@@ -4647,7 +4648,7 @@
     <row r="113" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2010398605117913E-3</v>
+        <v>0.48428356576310816</v>
       </c>
       <c r="B113" s="2">
         <v>55</v>
@@ -4671,7 +4672,7 @@
     <row r="114" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93954480993694223</v>
+        <v>0.61249632554434497</v>
       </c>
       <c r="B114" s="2">
         <v>117</v>
@@ -4692,7 +4693,7 @@
     <row r="115" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6827035642029289E-2</v>
+        <v>0.74190021895801117</v>
       </c>
       <c r="B115" s="2">
         <v>58</v>
@@ -4716,7 +4717,7 @@
     <row r="116" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5983878622345904</v>
+        <v>0.92364329675111168</v>
       </c>
       <c r="B116" s="2">
         <v>200</v>
@@ -4740,7 +4741,7 @@
     <row r="117" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10393910663460759</v>
+        <v>0.71287856230555524</v>
       </c>
       <c r="B117" s="2">
         <v>102</v>
@@ -4767,7 +4768,7 @@
     <row r="118" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72975401135756934</v>
+        <v>0.7837620771312741</v>
       </c>
       <c r="B118" s="2">
         <v>89</v>
@@ -4791,7 +4792,7 @@
     <row r="119" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12741340786045097</v>
+        <v>0.45308263807321569</v>
       </c>
       <c r="B119" s="2">
         <v>138</v>
@@ -4818,7 +4819,7 @@
     <row r="120" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62531007890382118</v>
+        <v>0.29059287402674128</v>
       </c>
       <c r="B120" s="2">
         <v>92</v>
@@ -4842,7 +4843,7 @@
     <row r="121" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84573023124521218</v>
+        <v>0.65943511889437256</v>
       </c>
       <c r="B121" s="2">
         <v>212</v>
@@ -4869,7 +4870,7 @@
     <row r="122" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5348018641832416</v>
+        <v>5.1201769837720956E-3</v>
       </c>
       <c r="B122" s="2">
         <v>173</v>
@@ -4893,7 +4894,7 @@
     <row r="123" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89878810532665199</v>
+        <v>0.841347139470496</v>
       </c>
       <c r="B123" s="2">
         <v>165</v>
@@ -4920,7 +4921,7 @@
     <row r="124" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51991773275853237</v>
+        <v>0.14593812781938154</v>
       </c>
       <c r="B124" s="2">
         <v>297</v>
@@ -4947,7 +4948,7 @@
     <row r="125" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42792593467514073</v>
+        <v>0.38602499363401432</v>
       </c>
       <c r="B125" s="2">
         <v>177</v>
@@ -4974,7 +4975,7 @@
     <row r="126" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40342926172184379</v>
+        <v>0.63249643344473516</v>
       </c>
       <c r="B126" s="2">
         <v>230</v>
@@ -4998,7 +4999,7 @@
     <row r="127" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.589942517839953</v>
+        <v>0.95491506841588247</v>
       </c>
       <c r="B127" s="2">
         <v>178</v>
@@ -5025,7 +5026,7 @@
     <row r="128" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68533136829311081</v>
+        <v>0.10363185123099294</v>
       </c>
       <c r="B128" s="2">
         <v>185</v>
@@ -5049,7 +5050,7 @@
     <row r="129" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.453260254804837E-2</v>
+        <v>9.0753522580228285E-2</v>
       </c>
       <c r="B129" s="2">
         <v>262</v>
@@ -5073,7 +5074,7 @@
     <row r="130" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.75723086105210147</v>
+        <v>0.59375880001754211</v>
       </c>
       <c r="B130" s="2">
         <v>99</v>
@@ -5097,7 +5098,7 @@
     <row r="131" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91277399899666301</v>
+        <v>0.6623273069531459</v>
       </c>
       <c r="B131" s="2">
         <v>124</v>
@@ -5118,7 +5119,7 @@
     <row r="132" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12334769703780279</v>
+        <v>3.2661338120493544E-2</v>
       </c>
       <c r="B132" s="2">
         <v>214</v>
@@ -5142,7 +5143,7 @@
     <row r="133" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71128506954725823</v>
+        <v>0.37959610762876494</v>
       </c>
       <c r="B133" s="2">
         <v>239</v>
@@ -5166,7 +5167,7 @@
     <row r="134" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.755266963270143E-2</v>
+        <v>0.24746177448173068</v>
       </c>
       <c r="B134" s="2">
         <v>51</v>
@@ -5190,7 +5191,7 @@
     <row r="135" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49648230702348473</v>
+        <v>0.72860720198307183</v>
       </c>
       <c r="B135" s="2">
         <v>170</v>
@@ -5214,7 +5215,7 @@
     <row r="136" spans="1:8" ht="216" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64168246759344405</v>
+        <v>0.57853484403103672</v>
       </c>
       <c r="B136" s="2">
         <v>67</v>
@@ -5241,7 +5242,7 @@
     <row r="137" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12099518848545165</v>
+        <v>0.5093511918275051</v>
       </c>
       <c r="B137" s="2">
         <v>136</v>
@@ -5265,7 +5266,7 @@
     <row r="138" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70467204366415892</v>
+        <v>0.8240170627822524</v>
       </c>
       <c r="B138" s="2">
         <v>123</v>
@@ -5289,7 +5290,7 @@
     <row r="139" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84838709348562036</v>
+        <v>0.77677537638789307</v>
       </c>
       <c r="B139" s="2">
         <v>96</v>
@@ -5316,7 +5317,7 @@
     <row r="140" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97969739580502446</v>
+        <v>0.41694378587477599</v>
       </c>
       <c r="B140" s="2">
         <v>242</v>
@@ -5340,7 +5341,7 @@
     <row r="141" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24242201327711488</v>
+        <v>0.6491495520617756</v>
       </c>
       <c r="B141" s="2">
         <v>161</v>
@@ -5361,7 +5362,7 @@
     <row r="142" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7138521391666327</v>
+        <v>0.19711066713518299</v>
       </c>
       <c r="B142" s="2">
         <v>240</v>
@@ -5385,7 +5386,7 @@
     <row r="143" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56403377739028038</v>
+        <v>0.89905068253970866</v>
       </c>
       <c r="B143" s="2">
         <v>244</v>
@@ -5406,7 +5407,7 @@
     <row r="144" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24731287920880252</v>
+        <v>0.24618729403317763</v>
       </c>
       <c r="B144" s="2">
         <v>17</v>
@@ -5430,7 +5431,7 @@
     <row r="145" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41168176642472964</v>
+        <v>0.81493285234636637</v>
       </c>
       <c r="B145" s="2">
         <v>293</v>
@@ -5454,7 +5455,7 @@
     <row r="146" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49858781125802576</v>
+        <v>0.81504711240896321</v>
       </c>
       <c r="B146" s="2">
         <v>295</v>
@@ -5484,7 +5485,7 @@
     <row r="147" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83450968981774543</v>
+        <v>0.19415205425145854</v>
       </c>
       <c r="B147" s="2">
         <v>168</v>
@@ -5508,7 +5509,7 @@
     <row r="148" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64101245930553785</v>
+        <v>0.3380072073961653</v>
       </c>
       <c r="B148" s="2">
         <v>37</v>
@@ -5529,7 +5530,7 @@
     <row r="149" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45947102459488487</v>
+        <v>0.32907599343299643</v>
       </c>
       <c r="B149" s="2">
         <v>159</v>
@@ -5556,7 +5557,7 @@
     <row r="150" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6946352105511098E-2</v>
+        <v>0.74658720676984336</v>
       </c>
       <c r="B150" s="2">
         <v>86</v>
@@ -5583,7 +5584,7 @@
     <row r="151" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37190343055753672</v>
+        <v>0.35106101650759536</v>
       </c>
       <c r="B151" s="2">
         <v>6</v>
@@ -5607,7 +5608,7 @@
     <row r="152" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7733740595942828E-2</v>
+        <v>0.17223366484202662</v>
       </c>
       <c r="B152" s="2">
         <v>61</v>
@@ -5631,7 +5632,7 @@
     <row r="153" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30623920234044277</v>
+        <v>0.87959374238241961</v>
       </c>
       <c r="B153" s="2">
         <v>30</v>
@@ -5655,7 +5656,7 @@
     <row r="154" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96818150106834722</v>
+        <v>0.16705901294362546</v>
       </c>
       <c r="B154" s="2">
         <v>250</v>
@@ -5682,7 +5683,7 @@
     <row r="155" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6228676220488865E-2</v>
+        <v>0.29806422484426498</v>
       </c>
       <c r="B155" s="2">
         <v>151</v>
@@ -5709,7 +5710,7 @@
     <row r="156" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1454986063171303</v>
+        <v>0.32923732232748704</v>
       </c>
       <c r="B156" s="2">
         <v>50</v>
@@ -5736,7 +5737,7 @@
     <row r="157" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22597635215222345</v>
+        <v>0.32540573290498442</v>
       </c>
       <c r="B157" s="2">
         <v>204</v>
@@ -5763,7 +5764,7 @@
     <row r="158" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8442509720895166</v>
+        <v>0.78136050869002172</v>
       </c>
       <c r="B158" s="2">
         <v>48</v>
@@ -5787,7 +5788,7 @@
     <row r="159" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41319766001114366</v>
+        <v>0.82159237723888201</v>
       </c>
       <c r="B159" s="2">
         <v>271</v>
@@ -5814,7 +5815,7 @@
     <row r="160" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41262666453742936</v>
+        <v>0.97220031030385157</v>
       </c>
       <c r="B160" s="2">
         <v>20</v>
@@ -5838,7 +5839,7 @@
     <row r="161" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5110014853322333E-4</v>
+        <v>0.25225675299193073</v>
       </c>
       <c r="B161" s="2">
         <v>286</v>
@@ -5862,7 +5863,7 @@
     <row r="162" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25280600866717096</v>
+        <v>4.4362503295615197E-3</v>
       </c>
       <c r="B162" s="2">
         <v>202</v>
@@ -5889,7 +5890,7 @@
     <row r="163" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52028170879384528</v>
+        <v>0.7786073862828885</v>
       </c>
       <c r="B163" s="2">
         <v>101</v>
@@ -5913,7 +5914,7 @@
     <row r="164" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71368628592789718</v>
+        <v>5.1302542902392445E-2</v>
       </c>
       <c r="B164" s="2">
         <v>281</v>
@@ -5934,7 +5935,7 @@
     <row r="165" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11504632103202184</v>
+        <v>0.2541350886516498</v>
       </c>
       <c r="B165" s="2">
         <v>210</v>
@@ -5955,7 +5956,7 @@
     <row r="166" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12613027641969221</v>
+        <v>0.52330188820662626</v>
       </c>
       <c r="B166" s="2">
         <v>164</v>
@@ -5979,7 +5980,7 @@
     <row r="167" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21688039940306303</v>
+        <v>1.3773962428780373E-2</v>
       </c>
       <c r="B167" s="2">
         <v>231</v>
@@ -6003,7 +6004,7 @@
     <row r="168" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31058733799870086</v>
+        <v>0.28111415648122073</v>
       </c>
       <c r="B168" s="2">
         <v>172</v>
@@ -6030,7 +6031,7 @@
     <row r="169" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.414438207791474</v>
+        <v>0.21945395698477332</v>
       </c>
       <c r="B169" s="2">
         <v>5</v>
@@ -6054,7 +6055,7 @@
     <row r="170" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44639737146868963</v>
+        <v>0.80914968618427208</v>
       </c>
       <c r="B170" s="2">
         <v>113</v>
@@ -6081,7 +6082,7 @@
     <row r="171" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20517762684958563</v>
+        <v>0.68090300080621757</v>
       </c>
       <c r="B171" s="2">
         <v>13</v>
@@ -6105,7 +6106,7 @@
     <row r="172" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9141992810595085E-2</v>
+        <v>0.54095163166763205</v>
       </c>
       <c r="B172" s="2">
         <v>181</v>
@@ -6129,7 +6130,7 @@
     <row r="173" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57786987075633467</v>
+        <v>0.27368623005199522</v>
       </c>
       <c r="B173" s="2">
         <v>195</v>
@@ -6153,7 +6154,7 @@
     <row r="174" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4503949854029075E-2</v>
+        <v>0.14747238033375476</v>
       </c>
       <c r="B174" s="2">
         <v>9</v>
@@ -6174,7 +6175,7 @@
     <row r="175" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9247941279006191</v>
+        <v>0.93238624884138654</v>
       </c>
       <c r="B175" s="2">
         <v>91</v>
@@ -6201,7 +6202,7 @@
     <row r="176" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74497287561193382</v>
+        <v>0.99835086795197414</v>
       </c>
       <c r="B176" s="2">
         <v>233</v>
@@ -6228,7 +6229,7 @@
     <row r="177" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54947187346340876</v>
+        <v>0.59598821290055048</v>
       </c>
       <c r="B177" s="2">
         <v>248</v>
@@ -6255,7 +6256,7 @@
     <row r="178" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71777943247333109</v>
+        <v>0.38675178176412184</v>
       </c>
       <c r="B178" s="2">
         <v>90</v>
@@ -6276,7 +6277,7 @@
     <row r="179" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55489527364933378</v>
+        <v>0.85418813161855034</v>
       </c>
       <c r="B179" s="2">
         <v>209</v>
@@ -6303,7 +6304,7 @@
     <row r="180" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4971929733965138</v>
+        <v>0.99515224439216887</v>
       </c>
       <c r="B180" s="2">
         <v>291</v>
@@ -6327,7 +6328,7 @@
     <row r="181" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86711048375015709</v>
+        <v>0.11968347931513557</v>
       </c>
       <c r="B181" s="2">
         <v>218</v>
@@ -6354,7 +6355,7 @@
     <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6438542334191562E-2</v>
+        <v>0.80765497571326328</v>
       </c>
       <c r="B182" s="2">
         <v>111</v>
@@ -6378,7 +6379,7 @@
     <row r="183" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47104340121772892</v>
+        <v>0.4101142054111947</v>
       </c>
       <c r="B183" s="2">
         <v>28</v>
@@ -6402,7 +6403,7 @@
     <row r="184" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31219312123014387</v>
+        <v>0.44013722124598764</v>
       </c>
       <c r="B184" s="2">
         <v>193</v>
@@ -6426,7 +6427,7 @@
     <row r="185" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7652148121267327</v>
+        <v>0.49935582000457601</v>
       </c>
       <c r="B185" s="2">
         <v>64</v>
@@ -6450,7 +6451,7 @@
     <row r="186" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42435259359291122</v>
+        <v>0.43519817981262077</v>
       </c>
       <c r="B186" s="2">
         <v>83</v>
@@ -6477,7 +6478,7 @@
     <row r="187" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50477502708571476</v>
+        <v>0.6163288902953149</v>
       </c>
       <c r="B187" s="2">
         <v>220</v>
@@ -6504,7 +6505,7 @@
     <row r="188" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92759834372200067</v>
+        <v>0.19849771635478564</v>
       </c>
       <c r="B188" s="2">
         <v>88</v>
@@ -6528,7 +6529,7 @@
     <row r="189" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98963004206622918</v>
+        <v>0.97868129180450014</v>
       </c>
       <c r="B189" s="2">
         <v>118</v>
@@ -6552,7 +6553,7 @@
     <row r="190" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2132005498030431E-2</v>
+        <v>0.60110536909584655</v>
       </c>
       <c r="B190" s="2">
         <v>203</v>
@@ -6576,7 +6577,7 @@
     <row r="191" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87559677954203352</v>
+        <v>3.444002021028425E-2</v>
       </c>
       <c r="B191" s="2">
         <v>142</v>
@@ -6600,7 +6601,7 @@
     <row r="192" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6972186921773611</v>
+        <v>0.43123680181742374</v>
       </c>
       <c r="B192" s="2">
         <v>140</v>
@@ -6624,7 +6625,7 @@
     <row r="193" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97146638663950191</v>
+        <v>0.31784281306803097</v>
       </c>
       <c r="B193" s="2">
         <v>148</v>
@@ -6648,7 +6649,7 @@
     <row r="194" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.95814938598294941</v>
+        <v>0.59882635882898605</v>
       </c>
       <c r="B194" s="2">
         <v>270</v>
@@ -6672,7 +6673,7 @@
     <row r="195" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2627423363557959E-2</v>
+        <v>2.1776995119407117E-2</v>
       </c>
       <c r="B195" s="2">
         <v>109</v>
@@ -6693,7 +6694,7 @@
     <row r="196" spans="1:8" ht="216" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16528654070003168</v>
+        <v>0.39718013982012723</v>
       </c>
       <c r="B196" s="2">
         <v>69</v>
@@ -6720,7 +6721,7 @@
     <row r="197" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59369065956024603</v>
+        <v>0.31257723610327603</v>
       </c>
       <c r="B197" s="2">
         <v>76</v>
@@ -6741,7 +6742,7 @@
     <row r="198" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13786496124951109</v>
+        <v>0.82674872566654556</v>
       </c>
       <c r="B198" s="2">
         <v>241</v>
@@ -6768,7 +6769,7 @@
     <row r="199" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4273500281145205</v>
+        <v>0.59896786816279213</v>
       </c>
       <c r="B199" s="2">
         <v>129</v>
@@ -6789,7 +6790,7 @@
     <row r="200" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75461586413524762</v>
+        <v>0.11221958913200647</v>
       </c>
       <c r="B200" s="2">
         <v>276</v>
@@ -6813,7 +6814,7 @@
     <row r="201" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89424596471680906</v>
+        <v>9.7474478808198484E-2</v>
       </c>
       <c r="B201" s="2">
         <v>12</v>
@@ -6837,7 +6838,7 @@
     <row r="202" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50257056152623092</v>
+        <v>0.72699959548861504</v>
       </c>
       <c r="B202" s="2">
         <v>154</v>
@@ -6864,7 +6865,7 @@
     <row r="203" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13099426620055765</v>
+        <v>0.84978959025442857</v>
       </c>
       <c r="B203" s="2">
         <v>282</v>
@@ -6888,7 +6889,7 @@
     <row r="204" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54846409562248521</v>
+        <v>0.88310810163570364</v>
       </c>
       <c r="B204" s="2">
         <v>40</v>
@@ -6912,7 +6913,7 @@
     <row r="205" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67215485460533575</v>
+        <v>9.3553906887052674E-2</v>
       </c>
       <c r="B205" s="2">
         <v>272</v>
@@ -6936,7 +6937,7 @@
     <row r="206" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68951219282709297</v>
+        <v>0.73985079333546733</v>
       </c>
       <c r="B206" s="2">
         <v>24</v>
@@ -6960,7 +6961,7 @@
     <row r="207" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93851486320431143</v>
+        <v>0.31250318088388251</v>
       </c>
       <c r="B207" s="2">
         <v>194</v>
@@ -6984,7 +6985,7 @@
     <row r="208" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81097442265050479</v>
+        <v>0.47351865234145507</v>
       </c>
       <c r="B208" s="2">
         <v>108</v>
@@ -7005,7 +7006,7 @@
     <row r="209" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53868628758654469</v>
+        <v>0.38613890371511428</v>
       </c>
       <c r="B209" s="2">
         <v>94</v>
@@ -7032,7 +7033,7 @@
     <row r="210" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42774145208202363</v>
+        <v>7.385864879968751E-2</v>
       </c>
       <c r="B210" s="2">
         <v>35</v>
@@ -7056,7 +7057,7 @@
     <row r="211" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96642027510419437</v>
+        <v>0.56254415215767184</v>
       </c>
       <c r="B211" s="2">
         <v>57</v>
@@ -7083,7 +7084,7 @@
     <row r="212" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96925841779041289</v>
+        <v>0.59818489457012369</v>
       </c>
       <c r="B212" s="2">
         <v>284</v>
@@ -7107,7 +7108,7 @@
     <row r="213" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8806465908179012</v>
+        <v>0.54836920607925432</v>
       </c>
       <c r="B213" s="2">
         <v>1</v>
@@ -7131,7 +7132,7 @@
     <row r="214" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72095383534368496</v>
+        <v>0.41425303598975949</v>
       </c>
       <c r="B214" s="2">
         <v>52</v>
@@ -7155,7 +7156,7 @@
     <row r="215" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38266492718489276</v>
+        <v>0.90832270845640151</v>
       </c>
       <c r="B215" s="2">
         <v>237</v>
@@ -7179,7 +7180,7 @@
     <row r="216" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30460559976287216</v>
+        <v>9.1479674214589801E-2</v>
       </c>
       <c r="B216" s="2">
         <v>56</v>
@@ -7203,7 +7204,7 @@
     <row r="217" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48924868778693387</v>
+        <v>0.22955498569491561</v>
       </c>
       <c r="B217" s="2">
         <v>246</v>
@@ -7233,7 +7234,7 @@
     <row r="218" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72431935542501191</v>
+        <v>0.13833838430377421</v>
       </c>
       <c r="B218" s="2">
         <v>278</v>
@@ -7257,7 +7258,7 @@
     <row r="219" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14022344233798067</v>
+        <v>0.81755811594218009</v>
       </c>
       <c r="B219" s="2">
         <v>95</v>
@@ -7284,7 +7285,7 @@
     <row r="220" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61763532792806153</v>
+        <v>0.57858801922960035</v>
       </c>
       <c r="B220" s="2">
         <v>3</v>
@@ -7308,7 +7309,7 @@
     <row r="221" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87651576219821303</v>
+        <v>0.70542345124861572</v>
       </c>
       <c r="B221" s="2">
         <v>130</v>
@@ -7332,7 +7333,7 @@
     <row r="222" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38541756108240377</v>
+        <v>0.79267282072731826</v>
       </c>
       <c r="B222" s="2">
         <v>175</v>
@@ -7356,7 +7357,7 @@
     <row r="223" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27292435247390323</v>
+        <v>0.40770311050032404</v>
       </c>
       <c r="B223" s="2">
         <v>121</v>
@@ -7377,7 +7378,7 @@
     <row r="224" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88796942323896222</v>
+        <v>0.16316393330001944</v>
       </c>
       <c r="B224" s="2">
         <v>236</v>
@@ -7404,7 +7405,7 @@
     <row r="225" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75946543000322864</v>
+        <v>0.34670495429696102</v>
       </c>
       <c r="B225" s="2">
         <v>199</v>
@@ -7428,7 +7429,7 @@
     <row r="226" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1380254826445224E-3</v>
+        <v>2.4181280862473509E-2</v>
       </c>
       <c r="B226" s="2">
         <v>132</v>
@@ -7452,7 +7453,7 @@
     <row r="227" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58814344372683747</v>
+        <v>0.17920617457117749</v>
       </c>
       <c r="B227" s="2">
         <v>229</v>
@@ -7479,7 +7480,7 @@
     <row r="228" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13559429459403038</v>
+        <v>0.77701848211715929</v>
       </c>
       <c r="B228" s="2">
         <v>166</v>
@@ -7503,7 +7504,7 @@
     <row r="229" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56353555387985299</v>
+        <v>0.34668108096901518</v>
       </c>
       <c r="B229" s="2">
         <v>68</v>
@@ -7530,7 +7531,7 @@
     <row r="230" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4006605501579158</v>
+        <v>0.71841532813854625</v>
       </c>
       <c r="B230" s="2">
         <v>112</v>
@@ -7554,7 +7555,7 @@
     <row r="231" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68338125927938553</v>
+        <v>6.3177613560676749E-2</v>
       </c>
       <c r="B231" s="2">
         <v>255</v>
@@ -7578,7 +7579,7 @@
     <row r="232" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44568566620061223</v>
+        <v>0.64398705343858043</v>
       </c>
       <c r="B232" s="2">
         <v>283</v>
@@ -7602,7 +7603,7 @@
     <row r="233" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78351192284546967</v>
+        <v>0.25848497555826899</v>
       </c>
       <c r="B233" s="2">
         <v>259</v>
@@ -7626,7 +7627,7 @@
     <row r="234" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5391070076635898E-2</v>
+        <v>0.76747209208312794</v>
       </c>
       <c r="B234" s="2">
         <v>182</v>
@@ -7653,7 +7654,7 @@
     <row r="235" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86267843253809329</v>
+        <v>0.99926890020321257</v>
       </c>
       <c r="B235" s="2">
         <v>191</v>
@@ -7677,7 +7678,7 @@
     <row r="236" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9515558572550522E-2</v>
+        <v>0.76997243947827132</v>
       </c>
       <c r="B236" s="2">
         <v>32</v>
@@ -7701,7 +7702,7 @@
     <row r="237" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7866274949015382E-2</v>
+        <v>6.1553880841469066E-2</v>
       </c>
       <c r="B237" s="2">
         <v>184</v>
@@ -7728,7 +7729,7 @@
     <row r="238" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18511045582718388</v>
+        <v>0.16358450991405782</v>
       </c>
       <c r="B238" s="2">
         <v>296</v>
@@ -7758,7 +7759,7 @@
     <row r="239" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90445083010649951</v>
+        <v>0.10681751988954169</v>
       </c>
       <c r="B239" s="2">
         <v>125</v>
@@ -7779,7 +7780,7 @@
     <row r="240" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10234271290262653</v>
+        <v>0.48332788666526527</v>
       </c>
       <c r="B240" s="2">
         <v>139</v>
@@ -7803,7 +7804,7 @@
     <row r="241" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45553752674406289</v>
+        <v>2.5185340275625467E-2</v>
       </c>
       <c r="B241" s="2">
         <v>29</v>
@@ -7827,7 +7828,7 @@
     <row r="242" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95418409920441405</v>
+        <v>0.88098258382940031</v>
       </c>
       <c r="B242" s="2">
         <v>25</v>
@@ -7851,7 +7852,7 @@
     <row r="243" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10312156302889797</v>
+        <v>0.89890943202228646</v>
       </c>
       <c r="B243" s="2">
         <v>60</v>
@@ -7875,7 +7876,7 @@
     <row r="244" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9565490292097526</v>
+        <v>0.61963923589197289</v>
       </c>
       <c r="B244" s="2">
         <v>197</v>
@@ -7899,7 +7900,7 @@
     <row r="245" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97422952858347678</v>
+        <v>0.15382981513659888</v>
       </c>
       <c r="B245" s="2">
         <v>245</v>
@@ -7926,7 +7927,7 @@
     <row r="246" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94096322737165561</v>
+        <v>8.1109128598865099E-2</v>
       </c>
       <c r="B246" s="2">
         <v>267</v>
@@ -7947,7 +7948,7 @@
     <row r="247" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29000825995479795</v>
+        <v>0.63610522541049208</v>
       </c>
       <c r="B247" s="2">
         <v>289</v>
@@ -7974,7 +7975,7 @@
     <row r="248" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69469717191520441</v>
+        <v>0.50893367506945153</v>
       </c>
       <c r="B248" s="2">
         <v>288</v>
@@ -7995,7 +7996,7 @@
     <row r="249" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31961526189865297</v>
+        <v>2.4808947434154294E-2</v>
       </c>
       <c r="B249" s="2">
         <v>103</v>
@@ -8022,7 +8023,7 @@
     <row r="250" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38779084428026234</v>
+        <v>0.66372155398473187</v>
       </c>
       <c r="B250" s="2">
         <v>23</v>
@@ -8049,7 +8050,7 @@
     <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78676045608866008</v>
+        <v>0.98919920877537337</v>
       </c>
       <c r="B251" s="2">
         <v>105</v>
@@ -8073,7 +8074,7 @@
     <row r="252" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73546378870551032</v>
+        <v>0.82698788594246209</v>
       </c>
       <c r="B252" s="2">
         <v>205</v>
@@ -8097,7 +8098,7 @@
     <row r="253" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71747463448112281</v>
+        <v>0.49759646695929338</v>
       </c>
       <c r="B253" s="2">
         <v>59</v>
@@ -8121,7 +8122,7 @@
     <row r="254" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95834419831392093</v>
+        <v>0.79501803013387518</v>
       </c>
       <c r="B254" s="2">
         <v>268</v>
@@ -8148,7 +8149,7 @@
     <row r="255" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18239627163248551</v>
+        <v>0.44692991529748194</v>
       </c>
       <c r="B255" s="2">
         <v>274</v>
@@ -8169,7 +8170,7 @@
     <row r="256" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24117987831665832</v>
+        <v>0.30566658342143338</v>
       </c>
       <c r="B256" s="2">
         <v>152</v>
@@ -8193,7 +8194,7 @@
     <row r="257" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94159678757469589</v>
+        <v>0.8476127567278261</v>
       </c>
       <c r="B257" s="2">
         <v>157</v>
@@ -8220,7 +8221,7 @@
     <row r="258" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()</f>
-        <v>8.1567977819602455E-2</v>
+        <v>0.41093799808230314</v>
       </c>
       <c r="B258" s="2">
         <v>46</v>
@@ -8247,7 +8248,7 @@
     <row r="259" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62054047505979149</v>
+        <v>0.45734098587889682</v>
       </c>
       <c r="B259" s="2">
         <v>215</v>
@@ -8274,7 +8275,7 @@
     <row r="260" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13397369313965679</v>
+        <v>0.50854377446333765</v>
       </c>
       <c r="B260" s="2">
         <v>150</v>
@@ -8298,7 +8299,7 @@
     <row r="261" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39109867575156043</v>
+        <v>2.2435258890791454E-2</v>
       </c>
       <c r="B261" s="2">
         <v>285</v>
@@ -8322,7 +8323,7 @@
     <row r="262" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28908120757833622</v>
+        <v>0.97354124779054263</v>
       </c>
       <c r="B262" s="2">
         <v>188</v>
@@ -8346,7 +8347,7 @@
     <row r="263" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62500447310242269</v>
+        <v>0.66234660424362835</v>
       </c>
       <c r="B263" s="2">
         <v>77</v>
@@ -8370,7 +8371,7 @@
     <row r="264" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36284267566184869</v>
+        <v>4.6990180275451654E-2</v>
       </c>
       <c r="B264" s="2">
         <v>260</v>
@@ -8394,7 +8395,7 @@
     <row r="265" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41922904892844093</v>
+        <v>0.63064041283568495</v>
       </c>
       <c r="B265" s="2">
         <v>145</v>
@@ -8421,7 +8422,7 @@
     <row r="266" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31745081682530218</v>
+        <v>0.68889624662582971</v>
       </c>
       <c r="B266" s="2">
         <v>258</v>
@@ -8445,7 +8446,7 @@
     <row r="267" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49197396852243847</v>
+        <v>0.81236977106708241</v>
       </c>
       <c r="B267" s="2">
         <v>22</v>
@@ -8469,7 +8470,7 @@
     <row r="268" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18236475232302429</v>
+        <v>0.13216420953728569</v>
       </c>
       <c r="B268" s="2">
         <v>269</v>
@@ -8490,7 +8491,7 @@
     <row r="269" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68822496375192987</v>
+        <v>0.56820095732664788</v>
       </c>
       <c r="B269" s="2">
         <v>265</v>
@@ -8514,7 +8515,7 @@
     <row r="270" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89171268559912742</v>
+        <v>0.73182832329593295</v>
       </c>
       <c r="B270" s="2">
         <v>153</v>
@@ -8535,7 +8536,7 @@
     <row r="271" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55674646182500087</v>
+        <v>0.7399724404830319</v>
       </c>
       <c r="B271" s="2">
         <v>256</v>
@@ -8562,7 +8563,7 @@
     <row r="272" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3033723851305592</v>
+        <v>0.38980431692929141</v>
       </c>
       <c r="B272" s="2">
         <v>122</v>
@@ -8583,7 +8584,7 @@
     <row r="273" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13217375458714664</v>
+        <v>0.44922137641707327</v>
       </c>
       <c r="B273" s="2">
         <v>294</v>
@@ -8610,7 +8611,7 @@
     <row r="274" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44070083968031304</v>
+        <v>0.33126513611140074</v>
       </c>
       <c r="B274" s="2">
         <v>251</v>
@@ -8634,7 +8635,7 @@
     <row r="275" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95994426621112294</v>
+        <v>0.84713536884996354</v>
       </c>
       <c r="B275" s="2">
         <v>235</v>
@@ -8658,7 +8659,7 @@
     <row r="276" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60140894512901555</v>
+        <v>0.28075860378502349</v>
       </c>
       <c r="B276" s="2">
         <v>171</v>
@@ -8682,7 +8683,7 @@
     <row r="277" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72702149534823379</v>
+        <v>0.96531549933967875</v>
       </c>
       <c r="B277" s="2">
         <v>155</v>
@@ -8706,7 +8707,7 @@
     <row r="278" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.9933096394742682E-2</v>
+        <v>0.85150818459552491</v>
       </c>
       <c r="B278" s="2">
         <v>31</v>
@@ -8733,7 +8734,7 @@
     <row r="279" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63511606811693389</v>
+        <v>0.32451017826535822</v>
       </c>
       <c r="B279" s="2">
         <v>216</v>
@@ -8757,7 +8758,7 @@
     <row r="280" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5837180153801691</v>
+        <v>0.25673206391891457</v>
       </c>
       <c r="B280" s="2">
         <v>207</v>
@@ -8784,7 +8785,7 @@
     <row r="281" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40830034019810402</v>
+        <v>0.39493296071361661</v>
       </c>
       <c r="B281" s="2">
         <v>174</v>
@@ -8808,7 +8809,7 @@
     <row r="282" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95879497665344238</v>
+        <v>0.59334260308183284</v>
       </c>
       <c r="B282" s="2">
         <v>186</v>
@@ -8835,7 +8836,7 @@
     <row r="283" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69818208038269336</v>
+        <v>0.51801450783819158</v>
       </c>
       <c r="B283" s="2">
         <v>261</v>
@@ -8859,7 +8860,7 @@
     <row r="284" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80547953136299588</v>
+        <v>0.80605059355435549</v>
       </c>
       <c r="B284" s="2">
         <v>75</v>
@@ -8886,7 +8887,7 @@
     <row r="285" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45545794063328893</v>
+        <v>0.49382588175993047</v>
       </c>
       <c r="B285" s="2">
         <v>98</v>
@@ -8910,7 +8911,7 @@
     <row r="286" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26318473121755215</v>
+        <v>0.22158381725994414</v>
       </c>
       <c r="B286" s="2">
         <v>63</v>
@@ -8937,7 +8938,7 @@
     <row r="287" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8479559948691775</v>
+        <v>0.18208902367213509</v>
       </c>
       <c r="B287" s="2">
         <v>126</v>
@@ -8961,7 +8962,7 @@
     <row r="288" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38815967447078614</v>
+        <v>0.40891920198113907</v>
       </c>
       <c r="B288" s="2">
         <v>280</v>
@@ -8982,7 +8983,7 @@
     <row r="289" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56127122001439023</v>
+        <v>0.39856352973801634</v>
       </c>
       <c r="B289" s="2">
         <v>189</v>
@@ -9009,7 +9010,7 @@
     <row r="290" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75154329547921617</v>
+        <v>0.13953439913504162</v>
       </c>
       <c r="B290" s="2">
         <v>71</v>
@@ -9033,7 +9034,7 @@
     <row r="291" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43871301789388861</v>
+        <v>0.76431917822977913</v>
       </c>
       <c r="B291" s="2">
         <v>211</v>
@@ -9057,7 +9058,7 @@
     <row r="292" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20778065314036254</v>
+        <v>0.82299768065626322</v>
       </c>
       <c r="B292" s="2">
         <v>33</v>
@@ -9078,7 +9079,7 @@
     <row r="293" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8053299732357645</v>
+        <v>0.89767418031935131</v>
       </c>
       <c r="B293" s="2">
         <v>227</v>
@@ -9102,7 +9103,7 @@
     <row r="294" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40896972501813789</v>
+        <v>0.88091703839537183</v>
       </c>
       <c r="B294" s="2">
         <v>228</v>
@@ -9126,7 +9127,7 @@
     <row r="295" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55629869509283003</v>
+        <v>0.34721953591848731</v>
       </c>
       <c r="B295" s="2">
         <v>264</v>
@@ -9150,7 +9151,7 @@
     <row r="296" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8028729655789859E-2</v>
+        <v>0.52969946750353103</v>
       </c>
       <c r="B296" s="2">
         <v>206</v>
@@ -9177,7 +9178,7 @@
     <row r="297" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33977077989758397</v>
+        <v>0.7576485042355382</v>
       </c>
       <c r="B297" s="2">
         <v>54</v>
@@ -9201,7 +9202,7 @@
     <row r="298" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93815853589479248</v>
+        <v>0.65253906546951956</v>
       </c>
       <c r="B298" s="2">
         <v>135</v>
@@ -9225,7 +9226,7 @@
     <row r="299" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6632020364713066</v>
+        <v>0.19642456207122505</v>
       </c>
       <c r="B299" s="2">
         <v>26</v>
@@ -9249,7 +9250,7 @@
     <row r="300" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1241499634876702E-2</v>
+        <v>0.71536414692956074</v>
       </c>
       <c r="B300" s="2">
         <v>223</v>
@@ -9381,7 +9382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+    <sheetView topLeftCell="A286" workbookViewId="0">
       <selection activeCell="A372" sqref="A301:XFD372"/>
     </sheetView>
   </sheetViews>
